--- a/medicine/Psychotrope/Jurançon_blanc/Jurançon_blanc.xlsx
+++ b/medicine/Psychotrope/Jurançon_blanc/Jurançon_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_blanc</t>
+          <t>Jurançon_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  jurançon blanc est un cépage de France de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_blanc</t>
+          <t>Jurançon_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est cultivé principalement dans la région Sud-Ouest. Il fait partie de l’encépagement de l'Armagnac et du Cognac. Aujourd'hui il est en grande régression passant de 5.760 hectares en 1958 à 137 hectares en 1988.
 Il ne fait pas partie de l'encépagement du Vignoble du Jurançon.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_blanc</t>
+          <t>Jurançon_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses, bullées
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_blanc</t>
+          <t>Jurançon_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque: 20 jours après le chasselas.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_blanc</t>
+          <t>Jurançon_blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille petite. La grappe est tronconique, compacte. Le cépage est vigoureux et productif.
 Il est très sensible au mildiou, à la pourriture grise mais il craint moins l'oïdium.
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_blanc</t>
+          <t>Jurançon_blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  jurançon blanc est connu sous les noms de Braquet (mais à ne pas confondre avec le Braquet de la  la région niçoise), dame blanche, notre-dame de Guilan, plant debout, plant dressé, plant quillat, quillat, quillard, sans-pareil
 </t>
